--- a/data/trans_orig/IP07C14-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C14-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6168BAF-CFBE-4079-8200-E19D7391DABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C56CB4B-1DFF-41AB-9067-CA7C28C59B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4A52E7FE-FEC0-4EE4-A542-24FAD9E222DF}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{60272AFA-EC8F-4D15-83EA-CC837A675094}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,222 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
     <t>30,49%</t>
   </si>
   <si>
@@ -118,33 +313,6 @@
     <t>34,29%</t>
   </si>
   <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
     <t>16,97%</t>
   </si>
   <si>
@@ -172,33 +340,6 @@
     <t>21,57%</t>
   </si>
   <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
     <t>14,88%</t>
   </si>
   <si>
@@ -220,148 +361,58 @@
     <t>18,45%</t>
   </si>
   <si>
-    <t>15,56%</t>
-  </si>
-  <si>
     <t>21,25%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
   </si>
   <si>
     <t>29,97%</t>
@@ -388,33 +439,6 @@
     <t>33,9%</t>
   </si>
   <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
     <t>15,27%</t>
   </si>
   <si>
@@ -439,30 +463,6 @@
     <t>19,75%</t>
   </si>
   <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
     <t>13,63%</t>
   </si>
   <si>
@@ -493,6 +493,192 @@
     <t>Menores según frecuencia de preocuparse con su aspecto en 2012 (Tasa respuesta: 43,64%)</t>
   </si>
   <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
     <t>28,62%</t>
   </si>
   <si>
@@ -517,33 +703,6 @@
     <t>30,7%</t>
   </si>
   <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
     <t>10,86%</t>
   </si>
   <si>
@@ -562,39 +721,9 @@
     <t>16,92%</t>
   </si>
   <si>
-    <t>14,06%</t>
-  </si>
-  <si>
     <t>19,63%</t>
   </si>
   <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
     <t>20,54%</t>
   </si>
   <si>
@@ -622,133 +751,55 @@
     <t>26,75%</t>
   </si>
   <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
   </si>
   <si>
     <t>29,17%</t>
@@ -775,30 +826,6 @@
     <t>24,62%</t>
   </si>
   <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
     <t>13,21%</t>
   </si>
   <si>
@@ -823,33 +850,6 @@
     <t>14,09%</t>
   </si>
   <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
     <t>17,73%</t>
   </si>
   <si>
@@ -874,6 +874,168 @@
     <t>Menores según frecuencia de preocuparse con su aspecto en 2015 (Tasa respuesta: 45,67%)</t>
   </si>
   <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
     <t>21,02%</t>
   </si>
   <si>
@@ -898,27 +1060,6 @@
     <t>20,88%</t>
   </si>
   <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
     <t>16,31%</t>
   </si>
   <si>
@@ -940,27 +1081,6 @@
     <t>21,07%</t>
   </si>
   <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
     <t>15,04%</t>
   </si>
   <si>
@@ -985,124 +1105,31 @@
     <t>21,97%</t>
   </si>
   <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
   </si>
   <si>
     <t>21,59%</t>
@@ -1132,21 +1159,6 @@
     <t>26,69%</t>
   </si>
   <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
     <t>19,25%</t>
   </si>
   <si>
@@ -1160,18 +1172,6 @@
   </si>
   <si>
     <t>16,06%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
   </si>
   <si>
     <t>14,62%</t>
@@ -1587,7 +1587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB14AE2-6B24-49C0-A7D0-AF8F35CB3CE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59A79AD-06DD-41B5-A889-89B0DFFB55D7}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1977,10 +1977,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7">
-        <v>76166</v>
+        <v>19998</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1992,10 +1992,10 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>76261</v>
+        <v>11083</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
@@ -2007,10 +2007,10 @@
         <v>22</v>
       </c>
       <c r="M10" s="7">
-        <v>226</v>
+        <v>47</v>
       </c>
       <c r="N10" s="7">
-        <v>152426</v>
+        <v>31080</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>23</v>
@@ -2028,10 +2028,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7">
-        <v>36374</v>
+        <v>12679</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>26</v>
@@ -2043,10 +2043,10 @@
         <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>23519</v>
+        <v>5775</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>29</v>
@@ -2058,10 +2058,10 @@
         <v>31</v>
       </c>
       <c r="M11" s="7">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="N11" s="7">
-        <v>59894</v>
+        <v>18454</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>32</v>
@@ -2079,10 +2079,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D12" s="7">
-        <v>42399</v>
+        <v>16219</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>35</v>
@@ -2094,10 +2094,10 @@
         <v>37</v>
       </c>
       <c r="H12" s="7">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="I12" s="7">
-        <v>48607</v>
+        <v>17652</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>38</v>
@@ -2109,10 +2109,10 @@
         <v>40</v>
       </c>
       <c r="M12" s="7">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="N12" s="7">
-        <v>91005</v>
+        <v>33870</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>41</v>
@@ -2130,10 +2130,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>57721</v>
+        <v>4662</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>44</v>
@@ -2145,10 +2145,10 @@
         <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>39840</v>
+        <v>6766</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>47</v>
@@ -2160,10 +2160,10 @@
         <v>49</v>
       </c>
       <c r="M13" s="7">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="N13" s="7">
-        <v>97561</v>
+        <v>11428</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -2181,10 +2181,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>37183</v>
+        <v>4827</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>53</v>
@@ -2196,10 +2196,10 @@
         <v>55</v>
       </c>
       <c r="H14" s="7">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="I14" s="7">
-        <v>53537</v>
+        <v>7606</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>56</v>
@@ -2211,10 +2211,10 @@
         <v>58</v>
       </c>
       <c r="M14" s="7">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="N14" s="7">
-        <v>90720</v>
+        <v>12433</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>59</v>
@@ -2232,10 +2232,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>375</v>
+        <v>89</v>
       </c>
       <c r="D15" s="7">
-        <v>249842</v>
+        <v>58384</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>62</v>
@@ -2247,10 +2247,10 @@
         <v>62</v>
       </c>
       <c r="H15" s="7">
-        <v>359</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7">
-        <v>241764</v>
+        <v>48882</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>62</v>
@@ -2262,10 +2262,10 @@
         <v>62</v>
       </c>
       <c r="M15" s="7">
-        <v>734</v>
+        <v>162</v>
       </c>
       <c r="N15" s="7">
-        <v>491606</v>
+        <v>107266</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>62</v>
@@ -2285,10 +2285,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="D16" s="7">
-        <v>16219</v>
+        <v>57721</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>64</v>
@@ -2300,10 +2300,10 @@
         <v>66</v>
       </c>
       <c r="H16" s="7">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I16" s="7">
-        <v>17652</v>
+        <v>39840</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>67</v>
@@ -2315,10 +2315,10 @@
         <v>69</v>
       </c>
       <c r="M16" s="7">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="N16" s="7">
-        <v>33870</v>
+        <v>97561</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>70</v>
@@ -2336,10 +2336,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D17" s="7">
-        <v>12679</v>
+        <v>36374</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>73</v>
@@ -2351,10 +2351,10 @@
         <v>75</v>
       </c>
       <c r="H17" s="7">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="I17" s="7">
-        <v>5775</v>
+        <v>23519</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>76</v>
@@ -2366,10 +2366,10 @@
         <v>78</v>
       </c>
       <c r="M17" s="7">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="N17" s="7">
-        <v>18454</v>
+        <v>59894</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>79</v>
@@ -2387,10 +2387,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="D18" s="7">
-        <v>4662</v>
+        <v>76166</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>82</v>
@@ -2402,10 +2402,10 @@
         <v>84</v>
       </c>
       <c r="H18" s="7">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="I18" s="7">
-        <v>6766</v>
+        <v>76261</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>85</v>
@@ -2417,10 +2417,10 @@
         <v>87</v>
       </c>
       <c r="M18" s="7">
-        <v>17</v>
+        <v>226</v>
       </c>
       <c r="N18" s="7">
-        <v>11428</v>
+        <v>152426</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>88</v>
@@ -2438,10 +2438,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D19" s="7">
-        <v>19998</v>
+        <v>42399</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>91</v>
@@ -2453,10 +2453,10 @@
         <v>93</v>
       </c>
       <c r="H19" s="7">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I19" s="7">
-        <v>11083</v>
+        <v>48607</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>94</v>
@@ -2468,10 +2468,10 @@
         <v>96</v>
       </c>
       <c r="M19" s="7">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="N19" s="7">
-        <v>31080</v>
+        <v>91005</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>97</v>
@@ -2489,10 +2489,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="D20" s="7">
-        <v>4827</v>
+        <v>37183</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>100</v>
@@ -2504,31 +2504,31 @@
         <v>102</v>
       </c>
       <c r="H20" s="7">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="I20" s="7">
-        <v>7606</v>
+        <v>53537</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="N20" s="7">
-        <v>12433</v>
+        <v>90720</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>107</v>
@@ -2540,10 +2540,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>89</v>
+        <v>375</v>
       </c>
       <c r="D21" s="7">
-        <v>58384</v>
+        <v>249842</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>62</v>
@@ -2555,10 +2555,10 @@
         <v>62</v>
       </c>
       <c r="H21" s="7">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="I21" s="7">
-        <v>48882</v>
+        <v>241764</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>62</v>
@@ -2570,10 +2570,10 @@
         <v>62</v>
       </c>
       <c r="M21" s="7">
-        <v>162</v>
+        <v>734</v>
       </c>
       <c r="N21" s="7">
-        <v>107266</v>
+        <v>491606</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>62</v>
@@ -2593,25 +2593,25 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="D22" s="7">
-        <v>92384</v>
+        <v>77719</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="H22" s="7">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="I22" s="7">
-        <v>93912</v>
+        <v>50923</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>110</v>
@@ -2623,10 +2623,10 @@
         <v>112</v>
       </c>
       <c r="M22" s="7">
-        <v>277</v>
+        <v>194</v>
       </c>
       <c r="N22" s="7">
-        <v>186297</v>
+        <v>128641</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>113</v>
@@ -2695,25 +2695,25 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="D24" s="7">
-        <v>47060</v>
+        <v>92384</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>125</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="H24" s="7">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="I24" s="7">
-        <v>55373</v>
+        <v>93912</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>127</v>
@@ -2725,10 +2725,10 @@
         <v>129</v>
       </c>
       <c r="M24" s="7">
-        <v>153</v>
+        <v>277</v>
       </c>
       <c r="N24" s="7">
-        <v>102434</v>
+        <v>186297</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>130</v>
@@ -2746,25 +2746,25 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="D25" s="7">
-        <v>77719</v>
+        <v>47060</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>134</v>
       </c>
       <c r="H25" s="7">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I25" s="7">
-        <v>50923</v>
+        <v>55373</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>135</v>
@@ -2776,10 +2776,10 @@
         <v>137</v>
       </c>
       <c r="M25" s="7">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="N25" s="7">
-        <v>128641</v>
+        <v>102434</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>138</v>
@@ -2909,7 +2909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591706B3-9DE9-455F-98E1-96162D4D3F1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010F58AF-9F69-4427-B875-B8A74C472A05}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3299,10 +3299,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7">
-        <v>74183</v>
+        <v>22473</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>151</v>
@@ -3314,10 +3314,10 @@
         <v>153</v>
       </c>
       <c r="H10" s="7">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>63422</v>
+        <v>12777</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>154</v>
@@ -3329,19 +3329,19 @@
         <v>156</v>
       </c>
       <c r="M10" s="7">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c r="N10" s="7">
-        <v>137605</v>
+        <v>35250</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,49 +3350,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D11" s="7">
-        <v>45574</v>
+        <v>11661</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H11" s="7">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I11" s="7">
-        <v>28519</v>
+        <v>12433</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M11" s="7">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="N11" s="7">
-        <v>74093</v>
+        <v>24095</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,49 +3401,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D12" s="7">
-        <v>36097</v>
+        <v>20719</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H12" s="7">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="I12" s="7">
-        <v>48740</v>
+        <v>18991</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M12" s="7">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="N12" s="7">
-        <v>84837</v>
+        <v>39710</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,49 +3452,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>50126</v>
+        <v>6876</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H13" s="7">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I13" s="7">
-        <v>36205</v>
+        <v>12003</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="N13" s="7">
-        <v>86332</v>
+        <v>18879</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,49 +3503,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>53233</v>
+        <v>4444</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H14" s="7">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I14" s="7">
-        <v>65398</v>
+        <v>13164</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M14" s="7">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="N14" s="7">
-        <v>118631</v>
+        <v>17608</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,10 +3554,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>381</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>259213</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>62</v>
@@ -3569,10 +3569,10 @@
         <v>62</v>
       </c>
       <c r="H15" s="7">
-        <v>345</v>
+        <v>98</v>
       </c>
       <c r="I15" s="7">
-        <v>242284</v>
+        <v>69368</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>62</v>
@@ -3584,10 +3584,10 @@
         <v>62</v>
       </c>
       <c r="M15" s="7">
-        <v>726</v>
+        <v>190</v>
       </c>
       <c r="N15" s="7">
-        <v>501498</v>
+        <v>135542</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>62</v>
@@ -3607,49 +3607,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="D16" s="7">
-        <v>20719</v>
+        <v>50126</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H16" s="7">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I16" s="7">
-        <v>18991</v>
+        <v>36205</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M16" s="7">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="N16" s="7">
-        <v>39710</v>
+        <v>86332</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,49 +3658,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D17" s="7">
-        <v>11661</v>
+        <v>45574</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I17" s="7">
-        <v>12433</v>
+        <v>28519</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="N17" s="7">
-        <v>24095</v>
+        <v>74093</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,49 +3709,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="D18" s="7">
-        <v>6876</v>
+        <v>74183</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H18" s="7">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I18" s="7">
-        <v>12003</v>
+        <v>63422</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M18" s="7">
-        <v>26</v>
+        <v>198</v>
       </c>
       <c r="N18" s="7">
-        <v>18879</v>
+        <v>137605</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,13 +3760,13 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D19" s="7">
-        <v>22473</v>
+        <v>36097</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>221</v>
@@ -3775,10 +3775,10 @@
         <v>222</v>
       </c>
       <c r="H19" s="7">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="I19" s="7">
-        <v>12777</v>
+        <v>48740</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>223</v>
@@ -3790,19 +3790,19 @@
         <v>225</v>
       </c>
       <c r="M19" s="7">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="N19" s="7">
-        <v>35250</v>
+        <v>84837</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>226</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,25 +3811,25 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D20" s="7">
-        <v>4444</v>
+        <v>53233</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="H20" s="7">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I20" s="7">
-        <v>13164</v>
+        <v>65398</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>231</v>
@@ -3841,10 +3841,10 @@
         <v>233</v>
       </c>
       <c r="M20" s="7">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="N20" s="7">
-        <v>17608</v>
+        <v>118631</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>234</v>
@@ -3862,10 +3862,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>381</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>259213</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>62</v>
@@ -3877,10 +3877,10 @@
         <v>62</v>
       </c>
       <c r="H21" s="7">
-        <v>98</v>
+        <v>345</v>
       </c>
       <c r="I21" s="7">
-        <v>69368</v>
+        <v>242284</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>62</v>
@@ -3892,10 +3892,10 @@
         <v>62</v>
       </c>
       <c r="M21" s="7">
-        <v>190</v>
+        <v>726</v>
       </c>
       <c r="N21" s="7">
-        <v>135542</v>
+        <v>501498</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>62</v>
@@ -3915,10 +3915,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="D22" s="7">
-        <v>94903</v>
+        <v>72599</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>237</v>
@@ -3930,10 +3930,10 @@
         <v>239</v>
       </c>
       <c r="H22" s="7">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="I22" s="7">
-        <v>82413</v>
+        <v>48983</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>240</v>
@@ -3945,10 +3945,10 @@
         <v>242</v>
       </c>
       <c r="M22" s="7">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="N22" s="7">
-        <v>177316</v>
+        <v>121582</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>243</v>
@@ -3957,7 +3957,7 @@
         <v>244</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,13 +3972,13 @@
         <v>57235</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="H23" s="7">
         <v>59</v>
@@ -3987,13 +3987,13 @@
         <v>40952</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M23" s="7">
         <v>139</v>
@@ -4002,13 +4002,13 @@
         <v>98187</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,49 +4017,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="D24" s="7">
-        <v>42973</v>
+        <v>94903</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H24" s="7">
+        <v>116</v>
+      </c>
+      <c r="I24" s="7">
+        <v>82413</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="M24" s="7">
         <v>254</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H24" s="7">
-        <v>86</v>
-      </c>
-      <c r="I24" s="7">
-        <v>60743</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="M24" s="7">
-        <v>151</v>
-      </c>
       <c r="N24" s="7">
-        <v>103716</v>
+        <v>177316</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,49 +4068,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="D25" s="7">
-        <v>72599</v>
+        <v>42973</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H25" s="7">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I25" s="7">
-        <v>48983</v>
+        <v>60743</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M25" s="7">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="N25" s="7">
-        <v>121582</v>
+        <v>103716</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>269</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,7 +4128,7 @@
         <v>270</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>271</v>
@@ -4140,7 +4140,7 @@
         <v>78562</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>272</v>
@@ -4231,7 +4231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3C5A86-5ADB-429A-9BE0-E1166707BD46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0693E6AB-BF29-431C-87EF-6974F974B458}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4621,10 +4621,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>57467</v>
+        <v>21954</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>278</v>
@@ -4636,10 +4636,10 @@
         <v>280</v>
       </c>
       <c r="H10" s="7">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="I10" s="7">
-        <v>69625</v>
+        <v>21756</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>281</v>
@@ -4651,10 +4651,10 @@
         <v>283</v>
       </c>
       <c r="M10" s="7">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="N10" s="7">
-        <v>127092</v>
+        <v>43710</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>284</v>
@@ -4672,49 +4672,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7">
-        <v>59301</v>
+        <v>13763</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>287</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>288</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="H11" s="7">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="I11" s="7">
-        <v>40508</v>
+        <v>10844</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>291</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M11" s="7">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="N11" s="7">
-        <v>99809</v>
+        <v>24607</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>292</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,49 +4723,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D12" s="7">
-        <v>54960</v>
+        <v>17926</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>38</v>
+        <v>295</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>293</v>
+        <v>52</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H12" s="7">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="I12" s="7">
-        <v>41867</v>
+        <v>21749</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>38</v>
+        <v>298</v>
       </c>
       <c r="M12" s="7">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="N12" s="7">
-        <v>96827</v>
+        <v>39676</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,49 +4774,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>60512</v>
+        <v>12262</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>302</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H13" s="7">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7">
-        <v>45611</v>
+        <v>17870</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="M13" s="7">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="N13" s="7">
-        <v>106123</v>
+        <v>30132</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,49 +4825,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D14" s="7">
-        <v>41097</v>
+        <v>9960</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>312</v>
       </c>
       <c r="H14" s="7">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="I14" s="7">
-        <v>61027</v>
+        <v>13419</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M14" s="7">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="N14" s="7">
-        <v>102125</v>
+        <v>23380</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,10 +4876,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>370</v>
+        <v>110</v>
       </c>
       <c r="D15" s="7">
-        <v>273337</v>
+        <v>75866</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>62</v>
@@ -4891,10 +4891,10 @@
         <v>62</v>
       </c>
       <c r="H15" s="7">
-        <v>362</v>
+        <v>129</v>
       </c>
       <c r="I15" s="7">
-        <v>258639</v>
+        <v>85639</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>62</v>
@@ -4906,10 +4906,10 @@
         <v>62</v>
       </c>
       <c r="M15" s="7">
-        <v>732</v>
+        <v>239</v>
       </c>
       <c r="N15" s="7">
-        <v>531976</v>
+        <v>161505</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>62</v>
@@ -4929,49 +4929,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="D16" s="7">
-        <v>17926</v>
+        <v>60512</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>315</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>319</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H16" s="7">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="I16" s="7">
-        <v>21749</v>
+        <v>45611</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>319</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="N16" s="7">
-        <v>39676</v>
+        <v>106123</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,40 +4980,40 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D17" s="7">
-        <v>13763</v>
+        <v>59301</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>324</v>
+        <v>160</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>325</v>
+        <v>257</v>
       </c>
       <c r="H17" s="7">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="I17" s="7">
-        <v>10844</v>
+        <v>40508</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>327</v>
+        <v>211</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>328</v>
       </c>
       <c r="M17" s="7">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="N17" s="7">
-        <v>24607</v>
+        <v>99809</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>329</v>
@@ -5022,7 +5022,7 @@
         <v>330</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>170</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,49 +5031,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D18" s="7">
-        <v>12262</v>
+        <v>57467</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H18" s="7">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="I18" s="7">
-        <v>17870</v>
+        <v>69625</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M18" s="7">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="N18" s="7">
-        <v>30132</v>
+        <v>127092</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,49 +5082,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="D19" s="7">
-        <v>21954</v>
+        <v>54960</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>341</v>
       </c>
       <c r="H19" s="7">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="I19" s="7">
-        <v>21756</v>
+        <v>41867</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>343</v>
+        <v>94</v>
       </c>
       <c r="M19" s="7">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="N19" s="7">
-        <v>43710</v>
+        <v>96827</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>286</v>
+        <v>344</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,25 +5133,25 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D20" s="7">
-        <v>9960</v>
+        <v>41097</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>348</v>
+        <v>201</v>
       </c>
       <c r="H20" s="7">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="I20" s="7">
-        <v>13419</v>
+        <v>61027</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>349</v>
@@ -5163,10 +5163,10 @@
         <v>351</v>
       </c>
       <c r="M20" s="7">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="N20" s="7">
-        <v>23380</v>
+        <v>102125</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>352</v>
@@ -5184,10 +5184,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>110</v>
+        <v>370</v>
       </c>
       <c r="D21" s="7">
-        <v>75866</v>
+        <v>273337</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>62</v>
@@ -5199,10 +5199,10 @@
         <v>62</v>
       </c>
       <c r="H21" s="7">
-        <v>129</v>
+        <v>362</v>
       </c>
       <c r="I21" s="7">
-        <v>85639</v>
+        <v>258639</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>62</v>
@@ -5214,10 +5214,10 @@
         <v>62</v>
       </c>
       <c r="M21" s="7">
-        <v>239</v>
+        <v>732</v>
       </c>
       <c r="N21" s="7">
-        <v>161505</v>
+        <v>531976</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>62</v>
@@ -5237,49 +5237,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D22" s="7">
-        <v>75394</v>
+        <v>82467</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" s="7">
+        <v>98</v>
+      </c>
+      <c r="I22" s="7">
+        <v>67367</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>213</v>
+      </c>
+      <c r="N22" s="7">
+        <v>149834</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="H22" s="7">
-        <v>131</v>
-      </c>
-      <c r="I22" s="7">
-        <v>91375</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M22" s="7">
-        <v>235</v>
-      </c>
-      <c r="N22" s="7">
-        <v>166768</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5294,13 +5294,13 @@
         <v>73064</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H23" s="7">
         <v>73</v>
@@ -5309,13 +5309,13 @@
         <v>51352</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="M23" s="7">
         <v>173</v>
@@ -5324,13 +5324,13 @@
         <v>124416</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,49 +5339,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D24" s="7">
-        <v>67222</v>
+        <v>75394</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H24" s="7">
+        <v>131</v>
+      </c>
+      <c r="I24" s="7">
+        <v>91375</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>235</v>
+      </c>
+      <c r="N24" s="7">
+        <v>166768</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="H24" s="7">
-        <v>86</v>
-      </c>
-      <c r="I24" s="7">
-        <v>59737</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M24" s="7">
-        <v>177</v>
-      </c>
-      <c r="N24" s="7">
-        <v>126959</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,49 +5390,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D25" s="7">
-        <v>82467</v>
+        <v>67222</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>87</v>
+        <v>373</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>149</v>
+        <v>374</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>114</v>
+        <v>375</v>
       </c>
       <c r="H25" s="7">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I25" s="7">
-        <v>67367</v>
+        <v>59737</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>374</v>
+        <v>212</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>259</v>
+        <v>376</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>375</v>
+        <v>69</v>
       </c>
       <c r="M25" s="7">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="N25" s="7">
-        <v>149834</v>
+        <v>126959</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>344</v>
+        <v>282</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,7 +5480,7 @@
         <v>384</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>385</v>

--- a/data/trans_orig/IP07C14-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C14-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C56CB4B-1DFF-41AB-9067-CA7C28C59B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADE2F933-41F4-4EA3-8E2A-E3C88E4EC32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{60272AFA-EC8F-4D15-83EA-CC837A675094}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5667D6EF-6029-4A70-9D2B-9AA336A0BD47}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="399">
   <si>
     <t>Menores según frecuencia de preocuparse con su aspecto en 2007 (Tasa respuesta: 42,59%)</t>
   </si>
@@ -67,1135 +67,1174 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
   </si>
   <si>
     <t>34,25%</t>
   </si>
   <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
   </si>
   <si>
     <t>25,21%</t>
   </si>
   <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de preocuparse con su aspecto en 2012 (Tasa respuesta: 43,64%)</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de preocuparse con su aspecto en 2015 (Tasa respuesta: 45,67%)</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
   </si>
   <si>
     <t>13,84%</t>
   </si>
   <si>
-    <t>6,84%</t>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
   </si>
   <si>
     <t>23,62%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>23,1%</t>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
   </si>
   <si>
     <t>18,93%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de preocuparse con su aspecto en 2012 (Tasa respuesta: 43,64%)</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de preocuparse con su aspecto en 2015 (Tasa respuesta: 45,67%)</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1245,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1302,39 +1341,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1386,7 +1425,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1497,13 +1536,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1512,6 +1544,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1576,19 +1615,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59A79AD-06DD-41B5-A889-89B0DFFB55D7}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED77B0A0-1B71-4697-B04C-E1A71CE31DF5}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1977,49 +2036,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>31</v>
-      </c>
-      <c r="D10" s="7">
-        <v>19998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>16</v>
-      </c>
-      <c r="I10" s="7">
-        <v>11083</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>47</v>
-      </c>
-      <c r="N10" s="7">
-        <v>31080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,49 +2081,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>20</v>
-      </c>
-      <c r="D11" s="7">
-        <v>12679</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5775</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>29</v>
-      </c>
-      <c r="N11" s="7">
-        <v>18454</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,49 +2126,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>24</v>
-      </c>
-      <c r="D12" s="7">
-        <v>16219</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>27</v>
-      </c>
-      <c r="I12" s="7">
-        <v>17652</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>51</v>
-      </c>
-      <c r="N12" s="7">
-        <v>33870</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2130,49 +2171,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
-      </c>
-      <c r="D13" s="7">
-        <v>4662</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>10</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6766</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>17</v>
-      </c>
-      <c r="N13" s="7">
-        <v>11428</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,49 +2216,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
-      </c>
-      <c r="D14" s="7">
-        <v>4827</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>11</v>
-      </c>
-      <c r="I14" s="7">
-        <v>7606</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>18</v>
-      </c>
-      <c r="N14" s="7">
-        <v>12433</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2232,102 +2261,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>89</v>
-      </c>
-      <c r="D15" s="7">
-        <v>58384</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
-      </c>
-      <c r="I15" s="7">
-        <v>48882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>162</v>
-      </c>
-      <c r="N15" s="7">
-        <v>107266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="D16" s="7">
-        <v>57721</v>
+        <v>9505</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I16" s="7">
-        <v>39840</v>
+        <v>16305</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="N16" s="7">
-        <v>97561</v>
+        <v>25809</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,49 +2359,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D17" s="7">
-        <v>36374</v>
+        <v>15355</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I17" s="7">
-        <v>23519</v>
+        <v>19061</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="N17" s="7">
-        <v>59894</v>
+        <v>34417</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,49 +2410,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="D18" s="7">
-        <v>76166</v>
+        <v>39011</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="I18" s="7">
-        <v>76261</v>
+        <v>38859</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>226</v>
+        <v>116</v>
       </c>
       <c r="N18" s="7">
-        <v>152426</v>
+        <v>77870</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2438,49 +2461,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D19" s="7">
-        <v>42399</v>
+        <v>23079</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="I19" s="7">
-        <v>48607</v>
+        <v>13078</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="N19" s="7">
-        <v>91005</v>
+        <v>36157</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,49 +2512,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>54</v>
+      </c>
+      <c r="D20" s="7">
+        <v>35179</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="7">
-        <v>37183</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="I20" s="7">
-        <v>53537</v>
+        <v>24408</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="M20" s="7">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="N20" s="7">
-        <v>90720</v>
+        <v>59587</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,102 +2563,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>375</v>
+        <v>184</v>
       </c>
       <c r="D21" s="7">
-        <v>249842</v>
+        <v>122129</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>359</v>
+        <v>168</v>
       </c>
       <c r="I21" s="7">
-        <v>241764</v>
+        <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>734</v>
+        <v>352</v>
       </c>
       <c r="N21" s="7">
-        <v>491606</v>
+        <v>233840</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="D22" s="7">
-        <v>77719</v>
+        <v>32505</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I22" s="7">
-        <v>50923</v>
+        <v>44839</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="M22" s="7">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="N22" s="7">
-        <v>128641</v>
+        <v>77344</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,49 +2667,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>47</v>
+      </c>
+      <c r="D23" s="7">
+        <v>31705</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="7">
-        <v>49053</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="H23" s="7">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I23" s="7">
-        <v>29294</v>
+        <v>36312</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="M23" s="7">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="N23" s="7">
-        <v>78347</v>
+        <v>68017</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,49 +2718,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="D24" s="7">
-        <v>92384</v>
+        <v>53373</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="H24" s="7">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="I24" s="7">
-        <v>93912</v>
+        <v>55054</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="M24" s="7">
-        <v>277</v>
+        <v>161</v>
       </c>
       <c r="N24" s="7">
-        <v>186297</v>
+        <v>108427</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,49 +2769,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D25" s="7">
-        <v>47060</v>
+        <v>25974</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="H25" s="7">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="I25" s="7">
-        <v>55373</v>
+        <v>16216</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="M25" s="7">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="N25" s="7">
-        <v>102434</v>
+        <v>42190</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,49 +2820,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D26" s="7">
-        <v>42009</v>
+        <v>42540</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="H26" s="7">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="I26" s="7">
-        <v>61144</v>
+        <v>26514</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="M26" s="7">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="N26" s="7">
-        <v>103153</v>
+        <v>69054</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,55 +2871,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>280</v>
+      </c>
+      <c r="D27" s="7">
+        <v>186097</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>264</v>
+      </c>
+      <c r="I27" s="7">
+        <v>178935</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>544</v>
+      </c>
+      <c r="N27" s="7">
+        <v>365032</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>62</v>
+      </c>
+      <c r="D28" s="7">
+        <v>42009</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="7">
+        <v>90</v>
+      </c>
+      <c r="I28" s="7">
+        <v>61144</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M28" s="7">
+        <v>152</v>
+      </c>
+      <c r="N28" s="7">
+        <v>103153</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>70</v>
+      </c>
+      <c r="D29" s="7">
+        <v>47060</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" s="7">
+        <v>83</v>
+      </c>
+      <c r="I29" s="7">
+        <v>55373</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M29" s="7">
+        <v>153</v>
+      </c>
+      <c r="N29" s="7">
+        <v>102434</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>138</v>
+      </c>
+      <c r="D30" s="7">
+        <v>92384</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H30" s="7">
+        <v>139</v>
+      </c>
+      <c r="I30" s="7">
+        <v>93912</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M30" s="7">
+        <v>277</v>
+      </c>
+      <c r="N30" s="7">
+        <v>186297</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>75</v>
+      </c>
+      <c r="D31" s="7">
+        <v>49053</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="7">
+        <v>45</v>
+      </c>
+      <c r="I31" s="7">
+        <v>29294</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M31" s="7">
+        <v>120</v>
+      </c>
+      <c r="N31" s="7">
+        <v>78347</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>119</v>
+      </c>
+      <c r="D32" s="7">
+        <v>77719</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H32" s="7">
+        <v>75</v>
+      </c>
+      <c r="I32" s="7">
+        <v>50923</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M32" s="7">
+        <v>194</v>
+      </c>
+      <c r="N32" s="7">
+        <v>128641</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>464</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>308226</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>432</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>290646</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>896</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>598872</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>62</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2909,8 +3246,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010F58AF-9F69-4427-B875-B8A74C472A05}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575EFB18-59D3-4112-8CC7-97EF08722EF7}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2926,7 +3263,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3299,49 +3636,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>31</v>
-      </c>
-      <c r="D10" s="7">
-        <v>22473</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>19</v>
-      </c>
-      <c r="I10" s="7">
-        <v>12777</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>50</v>
-      </c>
-      <c r="N10" s="7">
-        <v>35250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,49 +3681,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>16</v>
-      </c>
-      <c r="D11" s="7">
-        <v>11661</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>18</v>
-      </c>
-      <c r="I11" s="7">
-        <v>12433</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>34</v>
-      </c>
-      <c r="N11" s="7">
-        <v>24095</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,49 +3726,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>29</v>
-      </c>
-      <c r="D12" s="7">
-        <v>20719</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>27</v>
-      </c>
-      <c r="I12" s="7">
-        <v>18991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>56</v>
-      </c>
-      <c r="N12" s="7">
-        <v>39710</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,49 +3771,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
-      </c>
-      <c r="D13" s="7">
-        <v>6876</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>16</v>
-      </c>
-      <c r="I13" s="7">
-        <v>12003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>26</v>
-      </c>
-      <c r="N13" s="7">
-        <v>18879</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,49 +3816,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
-      </c>
-      <c r="D14" s="7">
-        <v>4444</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>18</v>
-      </c>
-      <c r="I14" s="7">
-        <v>13164</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>24</v>
-      </c>
-      <c r="N14" s="7">
-        <v>17608</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,102 +3861,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>98</v>
-      </c>
-      <c r="I15" s="7">
-        <v>69368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>190</v>
-      </c>
-      <c r="N15" s="7">
-        <v>135542</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>50126</v>
+        <v>16911</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="H16" s="7">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I16" s="7">
-        <v>36205</v>
+        <v>33776</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="M16" s="7">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="N16" s="7">
-        <v>86332</v>
+        <v>50687</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,49 +3959,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D17" s="7">
-        <v>45574</v>
+        <v>22666</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="H17" s="7">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I17" s="7">
-        <v>28519</v>
+        <v>26427</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="M17" s="7">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="N17" s="7">
-        <v>74093</v>
+        <v>49093</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,49 +4010,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="D18" s="7">
-        <v>74183</v>
+        <v>42337</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="H18" s="7">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="I18" s="7">
-        <v>63422</v>
+        <v>36338</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="M18" s="7">
-        <v>198</v>
+        <v>113</v>
       </c>
       <c r="N18" s="7">
-        <v>137605</v>
+        <v>78675</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,49 +4061,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D19" s="7">
-        <v>36097</v>
+        <v>28151</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" s="7">
+        <v>31</v>
+      </c>
+      <c r="I19" s="7">
+        <v>21347</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="L19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M19" s="7">
         <v>70</v>
       </c>
-      <c r="I19" s="7">
-        <v>48740</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M19" s="7">
-        <v>125</v>
-      </c>
       <c r="N19" s="7">
-        <v>84837</v>
+        <v>49499</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,49 +4112,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D20" s="7">
-        <v>53233</v>
+        <v>45361</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="H20" s="7">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="I20" s="7">
-        <v>65398</v>
+        <v>32077</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="M20" s="7">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="N20" s="7">
-        <v>118631</v>
+        <v>77439</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,102 +4163,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>381</v>
+        <v>223</v>
       </c>
       <c r="D21" s="7">
-        <v>259213</v>
+        <v>155427</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>345</v>
+        <v>214</v>
       </c>
       <c r="I21" s="7">
-        <v>242284</v>
+        <v>149965</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>726</v>
+        <v>437</v>
       </c>
       <c r="N21" s="7">
-        <v>501498</v>
+        <v>305392</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="D22" s="7">
-        <v>72599</v>
+        <v>40766</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="H22" s="7">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I22" s="7">
-        <v>48983</v>
+        <v>44786</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="M22" s="7">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="N22" s="7">
-        <v>121582</v>
+        <v>85552</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,49 +4267,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>31</v>
+      </c>
+      <c r="D23" s="7">
+        <v>20307</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H23" s="7">
+        <v>49</v>
+      </c>
+      <c r="I23" s="7">
+        <v>34316</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="M23" s="7">
         <v>80</v>
       </c>
-      <c r="D23" s="7">
-        <v>57235</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H23" s="7">
-        <v>59</v>
-      </c>
-      <c r="I23" s="7">
-        <v>40952</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="M23" s="7">
-        <v>139</v>
-      </c>
       <c r="N23" s="7">
-        <v>98187</v>
+        <v>54623</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,49 +4318,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="D24" s="7">
-        <v>94903</v>
+        <v>52565</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="H24" s="7">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="I24" s="7">
-        <v>82413</v>
+        <v>46075</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="M24" s="7">
-        <v>254</v>
+        <v>141</v>
       </c>
       <c r="N24" s="7">
-        <v>177316</v>
+        <v>98641</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,49 +4369,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D25" s="7">
-        <v>42973</v>
+        <v>29084</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>263</v>
+        <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="H25" s="7">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="I25" s="7">
-        <v>60743</v>
+        <v>19605</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="M25" s="7">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="N25" s="7">
-        <v>103716</v>
+        <v>48689</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>268</v>
+        <v>116</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,49 +4420,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D26" s="7">
-        <v>57677</v>
+        <v>27238</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="H26" s="7">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="I26" s="7">
-        <v>78562</v>
+        <v>16906</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="M26" s="7">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c r="N26" s="7">
-        <v>136239</v>
+        <v>44144</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,55 +4471,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>250</v>
+      </c>
+      <c r="D27" s="7">
+        <v>169960</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>229</v>
+      </c>
+      <c r="I27" s="7">
+        <v>161688</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>479</v>
+      </c>
+      <c r="N27" s="7">
+        <v>331648</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>87</v>
+      </c>
+      <c r="D28" s="7">
+        <v>57677</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="7">
+        <v>109</v>
+      </c>
+      <c r="I28" s="7">
+        <v>78562</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M28" s="7">
+        <v>196</v>
+      </c>
+      <c r="N28" s="7">
+        <v>136239</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>65</v>
+      </c>
+      <c r="D29" s="7">
+        <v>42973</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H29" s="7">
+        <v>86</v>
+      </c>
+      <c r="I29" s="7">
+        <v>60743</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M29" s="7">
+        <v>151</v>
+      </c>
+      <c r="N29" s="7">
+        <v>103716</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>138</v>
+      </c>
+      <c r="D30" s="7">
+        <v>94903</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H30" s="7">
+        <v>116</v>
+      </c>
+      <c r="I30" s="7">
+        <v>82413</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M30" s="7">
+        <v>254</v>
+      </c>
+      <c r="N30" s="7">
+        <v>177316</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>80</v>
+      </c>
+      <c r="D31" s="7">
+        <v>57235</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H31" s="7">
+        <v>59</v>
+      </c>
+      <c r="I31" s="7">
+        <v>40952</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="M31" s="7">
+        <v>139</v>
+      </c>
+      <c r="N31" s="7">
+        <v>98187</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>103</v>
+      </c>
+      <c r="D32" s="7">
+        <v>72599</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H32" s="7">
+        <v>73</v>
+      </c>
+      <c r="I32" s="7">
+        <v>48983</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M32" s="7">
+        <v>176</v>
+      </c>
+      <c r="N32" s="7">
+        <v>121582</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>473</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>325387</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>443</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>311653</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>916</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>637040</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>62</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4231,8 +4846,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0693E6AB-BF29-431C-87EF-6974F974B458}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1CF6C5-10A6-415E-B0CE-73B7CC32F5F6}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4248,7 +4863,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4621,49 +5236,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>33</v>
-      </c>
-      <c r="D10" s="7">
-        <v>21954</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>33</v>
-      </c>
-      <c r="I10" s="7">
-        <v>21756</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>66</v>
-      </c>
-      <c r="N10" s="7">
-        <v>43710</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,49 +5281,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>20</v>
-      </c>
-      <c r="D11" s="7">
-        <v>13763</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>17</v>
-      </c>
-      <c r="I11" s="7">
-        <v>10844</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>37</v>
-      </c>
-      <c r="N11" s="7">
-        <v>24607</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>294</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>223</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,49 +5326,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>26</v>
-      </c>
-      <c r="D12" s="7">
-        <v>17926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>295</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>33</v>
-      </c>
-      <c r="I12" s="7">
-        <v>21749</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>59</v>
-      </c>
-      <c r="N12" s="7">
-        <v>39676</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>301</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,49 +5371,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
-      </c>
-      <c r="D13" s="7">
-        <v>12262</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>302</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>303</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
-      </c>
-      <c r="I13" s="7">
-        <v>17870</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>305</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>306</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>43</v>
-      </c>
-      <c r="N13" s="7">
-        <v>30132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>307</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>309</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,49 +5416,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>14</v>
-      </c>
-      <c r="D14" s="7">
-        <v>9960</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>312</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>20</v>
-      </c>
-      <c r="I14" s="7">
-        <v>13419</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>313</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>314</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>315</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>34</v>
-      </c>
-      <c r="N14" s="7">
-        <v>23380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>316</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>317</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>318</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,102 +5461,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>110</v>
-      </c>
-      <c r="D15" s="7">
-        <v>75866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>129</v>
-      </c>
-      <c r="I15" s="7">
-        <v>85639</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>239</v>
-      </c>
-      <c r="N15" s="7">
-        <v>161505</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="D16" s="7">
-        <v>60512</v>
+        <v>25060</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="I16" s="7">
-        <v>45611</v>
+        <v>31334</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>284</v>
       </c>
       <c r="M16" s="7">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="N16" s="7">
-        <v>106123</v>
+        <v>56394</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,49 +5559,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D17" s="7">
-        <v>59301</v>
+        <v>31579</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>160</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="H17" s="7">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I17" s="7">
-        <v>40508</v>
+        <v>29075</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>211</v>
+        <v>290</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>328</v>
+        <v>57</v>
       </c>
       <c r="M17" s="7">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="N17" s="7">
-        <v>99809</v>
+        <v>60654</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,49 +5610,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="D18" s="7">
-        <v>57467</v>
+        <v>34626</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="H18" s="7">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="I18" s="7">
-        <v>69625</v>
+        <v>45113</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>336</v>
+        <v>214</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="M18" s="7">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="N18" s="7">
-        <v>127092</v>
+        <v>79739</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>339</v>
+        <v>255</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,49 +5661,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D19" s="7">
-        <v>54960</v>
+        <v>38030</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>94</v>
+        <v>300</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="H19" s="7">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I19" s="7">
-        <v>41867</v>
+        <v>29468</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>305</v>
       </c>
       <c r="M19" s="7">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="N19" s="7">
-        <v>96827</v>
+        <v>67498</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>344</v>
+        <v>255</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,49 +5712,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D20" s="7">
-        <v>41097</v>
+        <v>49316</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>201</v>
+        <v>310</v>
       </c>
       <c r="H20" s="7">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="I20" s="7">
-        <v>61027</v>
+        <v>44480</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="M20" s="7">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N20" s="7">
-        <v>102125</v>
+        <v>93796</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,102 +5763,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="D21" s="7">
-        <v>273337</v>
+        <v>178611</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>362</v>
+        <v>257</v>
       </c>
       <c r="I21" s="7">
-        <v>258639</v>
+        <v>179470</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>732</v>
+        <v>507</v>
       </c>
       <c r="N21" s="7">
-        <v>531976</v>
+        <v>358082</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="D22" s="7">
-        <v>82467</v>
+        <v>25998</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>49</v>
+        <v>317</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>318</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>131</v>
+        <v>319</v>
       </c>
       <c r="H22" s="7">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="I22" s="7">
-        <v>67367</v>
+        <v>43113</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="M22" s="7">
-        <v>213</v>
+        <v>94</v>
       </c>
       <c r="N22" s="7">
-        <v>149834</v>
+        <v>69110</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,49 +5867,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="D23" s="7">
-        <v>73064</v>
+        <v>35643</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>202</v>
+        <v>327</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="H23" s="7">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="I23" s="7">
-        <v>51352</v>
+        <v>30662</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="M23" s="7">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="N23" s="7">
-        <v>124416</v>
+        <v>66305</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,49 +5918,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="D24" s="7">
-        <v>75394</v>
+        <v>40768</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>366</v>
+        <v>179</v>
       </c>
       <c r="H24" s="7">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="I24" s="7">
-        <v>91375</v>
+        <v>46261</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="M24" s="7">
-        <v>235</v>
+        <v>121</v>
       </c>
       <c r="N24" s="7">
-        <v>166768</v>
+        <v>87029</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,49 +5969,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="D25" s="7">
-        <v>67222</v>
+        <v>35034</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>375</v>
+        <v>259</v>
       </c>
       <c r="H25" s="7">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="I25" s="7">
-        <v>59737</v>
+        <v>21884</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>212</v>
+        <v>345</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>69</v>
+        <v>347</v>
       </c>
       <c r="M25" s="7">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="N25" s="7">
-        <v>126959</v>
+        <v>56917</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>282</v>
+        <v>348</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,49 +6020,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D26" s="7">
-        <v>51057</v>
+        <v>33150</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="H26" s="7">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="I26" s="7">
-        <v>74447</v>
+        <v>22887</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="M26" s="7">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="N26" s="7">
-        <v>125504</v>
+        <v>56037</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,55 +6071,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>230</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170592</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>234</v>
+      </c>
+      <c r="I27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>464</v>
+      </c>
+      <c r="N27" s="7">
+        <v>335399</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>70</v>
+      </c>
+      <c r="D28" s="7">
+        <v>51057</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H28" s="7">
+        <v>103</v>
+      </c>
+      <c r="I28" s="7">
+        <v>74447</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="M28" s="7">
+        <v>173</v>
+      </c>
+      <c r="N28" s="7">
+        <v>125504</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>91</v>
+      </c>
+      <c r="D29" s="7">
+        <v>67222</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H29" s="7">
+        <v>86</v>
+      </c>
+      <c r="I29" s="7">
+        <v>59737</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="M29" s="7">
+        <v>177</v>
+      </c>
+      <c r="N29" s="7">
+        <v>126959</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>104</v>
+      </c>
+      <c r="D30" s="7">
+        <v>75394</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H30" s="7">
+        <v>131</v>
+      </c>
+      <c r="I30" s="7">
+        <v>91375</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="M30" s="7">
+        <v>235</v>
+      </c>
+      <c r="N30" s="7">
+        <v>166768</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>100</v>
+      </c>
+      <c r="D31" s="7">
+        <v>73064</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H31" s="7">
+        <v>73</v>
+      </c>
+      <c r="I31" s="7">
+        <v>51352</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="M31" s="7">
+        <v>173</v>
+      </c>
+      <c r="N31" s="7">
+        <v>124416</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>115</v>
+      </c>
+      <c r="D32" s="7">
+        <v>82467</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H32" s="7">
+        <v>98</v>
+      </c>
+      <c r="I32" s="7">
+        <v>67367</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="M32" s="7">
+        <v>213</v>
+      </c>
+      <c r="N32" s="7">
+        <v>149834</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>480</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>349203</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>491</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>344278</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>971</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>693480</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>62</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C14-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C14-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADE2F933-41F4-4EA3-8E2A-E3C88E4EC32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{701E1610-DF67-403F-92E7-987A90C7E527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5667D6EF-6029-4A70-9D2B-9AA336A0BD47}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C585E4FC-707A-44F9-8886-B816104AA2AA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="397">
   <si>
     <t>Menores según frecuencia de preocuparse con su aspecto en 2007 (Tasa respuesta: 42,59%)</t>
   </si>
@@ -97,46 +97,43 @@
     <t>7,78%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
   </si>
   <si>
     <t>14,6%</t>
   </si>
   <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
   </si>
   <si>
     <t>11,04%</t>
   </si>
   <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
+    <t>8,02%</t>
   </si>
   <si>
     <t>12,57%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
   </si>
   <si>
     <t>17,06%</t>
   </si>
   <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
   </si>
   <si>
     <t>14,72%</t>
@@ -145,31 +142,31 @@
     <t>11,33%</t>
   </si>
   <si>
-    <t>18,81%</t>
+    <t>19,05%</t>
   </si>
   <si>
     <t>31,94%</t>
   </si>
   <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
   </si>
   <si>
     <t>34,78%</t>
   </si>
   <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
   </si>
   <si>
     <t>33,3%</t>
   </si>
   <si>
-    <t>28,28%</t>
+    <t>28,66%</t>
   </si>
   <si>
     <t>38,21%</t>
@@ -178,1063 +175,1060 @@
     <t>18,9%</t>
   </si>
   <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
   </si>
   <si>
     <t>11,71%</t>
   </si>
   <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
+    <t>17,28%</t>
   </si>
   <si>
     <t>15,46%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
   </si>
   <si>
     <t>28,8%</t>
   </si>
   <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
   </si>
   <si>
     <t>21,85%</t>
   </si>
   <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de preocuparse con su aspecto en 2012 (Tasa respuesta: 43,64%)</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
     <t>16,52%</t>
   </si>
   <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
   </si>
   <si>
     <t>18,04%</t>
   </si>
   <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
   </si>
   <si>
     <t>15,72%</t>
   </si>
   <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de preocuparse con su aspecto en 2016 (Tasa respuesta: 45,67%)</t>
+  </si>
+  <si>
+    <t>14,03%</t>
   </si>
   <si>
     <t>10,15%</t>
   </si>
   <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
   </si>
   <si>
     <t>15,61%</t>
   </si>
   <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
   </si>
   <si>
     <t>14,62%</t>
   </si>
   <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
     <t>19,57%</t>
   </si>
   <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de preocuparse con su aspecto en 2012 (Tasa respuesta: 43,64%)</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de preocuparse con su aspecto en 2015 (Tasa respuesta: 45,67%)</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
   </si>
   <si>
     <t>21,61%</t>
   </si>
   <si>
-    <t>18,93%</t>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
   </si>
 </sst>
 </file>
@@ -1646,7 +1640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED77B0A0-1B71-4697-B04C-E1A71CE31DF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0010C4E9-1F62-42BB-A5DB-97253D9BA6C0}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2350,7 +2344,7 @@
         <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,13 +2359,13 @@
         <v>15355</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -2380,13 +2374,13 @@
         <v>19061</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="M17" s="7">
         <v>52</v>
@@ -2395,13 +2389,13 @@
         <v>34417</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,13 +2410,13 @@
         <v>39011</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -2431,13 +2425,13 @@
         <v>38859</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M18" s="7">
         <v>116</v>
@@ -2446,13 +2440,13 @@
         <v>77870</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,13 +2461,13 @@
         <v>23079</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -2482,13 +2476,13 @@
         <v>13078</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -2497,13 +2491,13 @@
         <v>36157</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,13 +2512,13 @@
         <v>35179</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
@@ -2533,13 +2527,13 @@
         <v>24408</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M20" s="7">
         <v>90</v>
@@ -2548,13 +2542,13 @@
         <v>59587</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,13 +2563,13 @@
         <v>122129</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H21" s="7">
         <v>168</v>
@@ -2584,13 +2578,13 @@
         <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
         <v>352</v>
@@ -2599,18 +2593,18 @@
         <v>233840</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2622,13 +2616,13 @@
         <v>32505</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H22" s="7">
         <v>66</v>
@@ -2637,13 +2631,13 @@
         <v>44839</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M22" s="7">
         <v>114</v>
@@ -2652,13 +2646,13 @@
         <v>77344</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,13 +2667,13 @@
         <v>31705</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H23" s="7">
         <v>54</v>
@@ -2688,13 +2682,13 @@
         <v>36312</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="M23" s="7">
         <v>101</v>
@@ -2703,13 +2697,13 @@
         <v>68017</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,13 +2718,13 @@
         <v>53373</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H24" s="7">
         <v>80</v>
@@ -2739,13 +2733,13 @@
         <v>55054</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M24" s="7">
         <v>161</v>
@@ -2754,13 +2748,13 @@
         <v>108427</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,13 +2769,13 @@
         <v>25974</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -2790,13 +2784,13 @@
         <v>16216</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M25" s="7">
         <v>64</v>
@@ -2805,13 +2799,13 @@
         <v>42190</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,13 +2820,13 @@
         <v>42540</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H26" s="7">
         <v>39</v>
@@ -2841,13 +2835,13 @@
         <v>26514</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M26" s="7">
         <v>104</v>
@@ -2856,13 +2850,13 @@
         <v>69054</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,13 +2871,13 @@
         <v>186097</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H27" s="7">
         <v>264</v>
@@ -2892,13 +2886,13 @@
         <v>178935</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M27" s="7">
         <v>544</v>
@@ -2907,13 +2901,13 @@
         <v>365032</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2924,13 @@
         <v>42009</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H28" s="7">
         <v>90</v>
@@ -2945,13 +2939,13 @@
         <v>61144</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M28" s="7">
         <v>152</v>
@@ -2960,13 +2954,13 @@
         <v>103153</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2975,13 @@
         <v>47060</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H29" s="7">
         <v>83</v>
@@ -2996,13 +2990,13 @@
         <v>55373</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M29" s="7">
         <v>153</v>
@@ -3011,13 +3005,13 @@
         <v>102434</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,13 +3026,13 @@
         <v>92384</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H30" s="7">
         <v>139</v>
@@ -3047,13 +3041,13 @@
         <v>93912</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M30" s="7">
         <v>277</v>
@@ -3062,13 +3056,13 @@
         <v>186297</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,13 +3077,13 @@
         <v>49053</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H31" s="7">
         <v>45</v>
@@ -3098,13 +3092,13 @@
         <v>29294</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M31" s="7">
         <v>120</v>
@@ -3113,13 +3107,13 @@
         <v>78347</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3128,13 @@
         <v>77719</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H32" s="7">
         <v>75</v>
@@ -3149,13 +3143,13 @@
         <v>50923</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M32" s="7">
         <v>194</v>
@@ -3164,13 +3158,13 @@
         <v>128641</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3179,13 @@
         <v>308226</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H33" s="7">
         <v>432</v>
@@ -3200,13 +3194,13 @@
         <v>290646</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M33" s="7">
         <v>896</v>
@@ -3215,18 +3209,18 @@
         <v>598872</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3246,7 +3240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575EFB18-59D3-4112-8CC7-97EF08722EF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E9F5BE-9D98-4CB8-8FB7-94C536619058}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3263,7 +3257,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3914,13 +3908,13 @@
         <v>16911</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -3929,13 +3923,13 @@
         <v>33776</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -3944,13 +3938,13 @@
         <v>50687</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,13 +3959,13 @@
         <v>22666</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -3980,13 +3974,13 @@
         <v>26427</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M17" s="7">
         <v>71</v>
@@ -3995,13 +3989,13 @@
         <v>49093</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +4010,13 @@
         <v>42337</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H18" s="7">
         <v>51</v>
@@ -4031,13 +4025,13 @@
         <v>36338</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M18" s="7">
         <v>113</v>
@@ -4046,13 +4040,13 @@
         <v>78675</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4061,13 @@
         <v>28151</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -4082,13 +4076,13 @@
         <v>21347</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M19" s="7">
         <v>70</v>
@@ -4097,13 +4091,13 @@
         <v>49499</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4112,13 @@
         <v>45361</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
@@ -4133,13 +4127,13 @@
         <v>32077</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M20" s="7">
         <v>110</v>
@@ -4148,13 +4142,13 @@
         <v>77439</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4163,13 @@
         <v>155427</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H21" s="7">
         <v>214</v>
@@ -4184,13 +4178,13 @@
         <v>149965</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
         <v>437</v>
@@ -4199,18 +4193,18 @@
         <v>305392</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4222,13 +4216,13 @@
         <v>40766</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H22" s="7">
         <v>61</v>
@@ -4237,13 +4231,13 @@
         <v>44786</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M22" s="7">
         <v>123</v>
@@ -4252,13 +4246,13 @@
         <v>85552</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,13 +4267,13 @@
         <v>20307</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="H23" s="7">
         <v>49</v>
@@ -4288,13 +4282,13 @@
         <v>34316</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M23" s="7">
         <v>80</v>
@@ -4303,13 +4297,13 @@
         <v>54623</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,13 +4318,13 @@
         <v>52565</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H24" s="7">
         <v>65</v>
@@ -4339,13 +4333,13 @@
         <v>46075</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>218</v>
+        <v>157</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M24" s="7">
         <v>141</v>
@@ -4354,13 +4348,13 @@
         <v>98641</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,13 +4369,13 @@
         <v>29084</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -4390,13 +4384,13 @@
         <v>19605</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -4405,13 +4399,13 @@
         <v>48689</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>116</v>
+        <v>226</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,13 +4420,13 @@
         <v>27238</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
@@ -4441,13 +4435,13 @@
         <v>16906</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M26" s="7">
         <v>66</v>
@@ -4456,13 +4450,13 @@
         <v>44144</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,13 +4471,13 @@
         <v>169960</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H27" s="7">
         <v>229</v>
@@ -4492,13 +4486,13 @@
         <v>161688</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M27" s="7">
         <v>479</v>
@@ -4507,13 +4501,13 @@
         <v>331648</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,13 +4524,13 @@
         <v>57677</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H28" s="7">
         <v>109</v>
@@ -4545,13 +4539,13 @@
         <v>78562</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M28" s="7">
         <v>196</v>
@@ -4560,13 +4554,13 @@
         <v>136239</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,28 +4575,28 @@
         <v>42973</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H29" s="7">
         <v>86</v>
       </c>
       <c r="I29" s="7">
-        <v>60743</v>
+        <v>60742</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M29" s="7">
         <v>151</v>
@@ -4611,13 +4605,13 @@
         <v>103716</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,13 +4626,13 @@
         <v>94903</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>256</v>
+        <v>143</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H30" s="7">
         <v>116</v>
@@ -4647,13 +4641,13 @@
         <v>82413</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="M30" s="7">
         <v>254</v>
@@ -4662,13 +4656,13 @@
         <v>177316</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4683,13 +4677,13 @@
         <v>57235</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H31" s="7">
         <v>59</v>
@@ -4698,13 +4692,13 @@
         <v>40952</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>163</v>
+        <v>264</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M31" s="7">
         <v>139</v>
@@ -4713,13 +4707,13 @@
         <v>98187</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +4728,13 @@
         <v>72599</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H32" s="7">
         <v>73</v>
@@ -4749,13 +4743,13 @@
         <v>48983</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>20</v>
+        <v>273</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M32" s="7">
         <v>176</v>
@@ -4764,13 +4758,13 @@
         <v>121582</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,28 +4779,28 @@
         <v>325387</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H33" s="7">
         <v>443</v>
       </c>
       <c r="I33" s="7">
-        <v>311653</v>
+        <v>311652</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M33" s="7">
         <v>916</v>
@@ -4815,18 +4809,18 @@
         <v>637040</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4846,7 +4840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1CF6C5-10A6-415E-B0CE-73B7CC32F5F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE69E19-56CA-494E-9F0B-B6479BD91863}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4863,7 +4857,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5514,7 +5508,7 @@
         <v>25060</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>280</v>
@@ -5535,7 +5529,7 @@
         <v>283</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>284</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -5544,10 +5538,10 @@
         <v>56394</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>286</v>
@@ -5568,10 +5562,10 @@
         <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>160</v>
+        <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -5580,13 +5574,13 @@
         <v>29075</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>57</v>
+        <v>292</v>
       </c>
       <c r="M17" s="7">
         <v>83</v>
@@ -5595,13 +5589,13 @@
         <v>60654</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5616,13 +5610,13 @@
         <v>34626</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H18" s="7">
         <v>65</v>
@@ -5631,13 +5625,13 @@
         <v>45113</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>214</v>
+        <v>300</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M18" s="7">
         <v>114</v>
@@ -5646,13 +5640,13 @@
         <v>79739</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,13 +5661,13 @@
         <v>38030</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="H19" s="7">
         <v>43</v>
@@ -5682,13 +5676,13 @@
         <v>29468</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="M19" s="7">
         <v>96</v>
@@ -5697,13 +5691,13 @@
         <v>67498</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>255</v>
+        <v>311</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,13 +5712,13 @@
         <v>49316</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>308</v>
+        <v>192</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H20" s="7">
         <v>65</v>
@@ -5733,13 +5727,13 @@
         <v>44480</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>313</v>
+        <v>256</v>
       </c>
       <c r="M20" s="7">
         <v>135</v>
@@ -5748,13 +5742,13 @@
         <v>93796</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5763,13 @@
         <v>178611</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H21" s="7">
         <v>257</v>
@@ -5784,13 +5778,13 @@
         <v>179470</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
         <v>507</v>
@@ -5799,18 +5793,18 @@
         <v>358082</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5822,13 +5816,13 @@
         <v>25998</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>59</v>
@@ -5837,13 +5831,13 @@
         <v>43113</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>320</v>
+        <v>87</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="M22" s="7">
         <v>94</v>
@@ -5852,13 +5846,13 @@
         <v>69110</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>324</v>
+        <v>29</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5867,13 @@
         <v>35643</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="H23" s="7">
         <v>46</v>
@@ -5906,10 +5900,10 @@
         <v>332</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,13 +5918,13 @@
         <v>40768</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H24" s="7">
         <v>66</v>
@@ -5981,7 +5975,7 @@
         <v>344</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>259</v>
+        <v>345</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -5990,13 +5984,13 @@
         <v>21884</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -6005,13 +5999,13 @@
         <v>56917</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>350</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,7 +6026,7 @@
         <v>352</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="H26" s="7">
         <v>33</v>
@@ -6041,13 +6035,13 @@
         <v>22887</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M26" s="7">
         <v>78</v>
@@ -6056,13 +6050,13 @@
         <v>56037</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6071,13 @@
         <v>170592</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H27" s="7">
         <v>234</v>
@@ -6092,13 +6086,13 @@
         <v>164807</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M27" s="7">
         <v>464</v>
@@ -6107,13 +6101,13 @@
         <v>335399</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6130,10 +6124,10 @@
         <v>51057</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>125</v>
+        <v>358</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>359</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>360</v>
@@ -6145,13 +6139,13 @@
         <v>74447</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M28" s="7">
         <v>173</v>
@@ -6160,13 +6154,13 @@
         <v>125504</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6181,13 +6175,13 @@
         <v>67222</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>367</v>
+        <v>183</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H29" s="7">
         <v>86</v>
@@ -6196,13 +6190,13 @@
         <v>59737</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M29" s="7">
         <v>177</v>
@@ -6211,13 +6205,13 @@
         <v>126959</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,13 +6226,13 @@
         <v>75394</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>376</v>
+        <v>146</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H30" s="7">
         <v>131</v>
@@ -6247,13 +6241,13 @@
         <v>91375</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M30" s="7">
         <v>235</v>
@@ -6262,13 +6256,13 @@
         <v>166768</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>192</v>
+        <v>305</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6277,13 @@
         <v>73064</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H31" s="7">
         <v>73</v>
@@ -6298,13 +6292,13 @@
         <v>51352</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M31" s="7">
         <v>173</v>
@@ -6313,13 +6307,13 @@
         <v>124416</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6334,13 +6328,13 @@
         <v>82467</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H32" s="7">
         <v>98</v>
@@ -6349,13 +6343,13 @@
         <v>67367</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>126</v>
+        <v>391</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M32" s="7">
         <v>213</v>
@@ -6364,13 +6358,13 @@
         <v>149834</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>246</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6385,13 +6379,13 @@
         <v>349203</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H33" s="7">
         <v>491</v>
@@ -6400,13 +6394,13 @@
         <v>344278</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M33" s="7">
         <v>971</v>
@@ -6415,18 +6409,18 @@
         <v>693480</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C14-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C14-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{701E1610-DF67-403F-92E7-987A90C7E527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2885F9DA-3494-4BA9-9E08-2E9B14FFEF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C585E4FC-707A-44F9-8886-B816104AA2AA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CF38D35C-F7C7-40F7-A6BD-F8DBC21E7678}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="401">
   <si>
     <t>Menores según frecuencia de preocuparse con su aspecto en 2007 (Tasa respuesta: 42,59%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,1141 +94,1153 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
     <t>7,78%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
   </si>
   <si>
     <t>11,04%</t>
   </si>
   <si>
-    <t>8,02%</t>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
   </si>
   <si>
     <t>12,57%</t>
   </si>
   <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
   </si>
   <si>
     <t>14,72%</t>
   </si>
   <si>
-    <t>11,33%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
   </si>
   <si>
     <t>19,05%</t>
   </si>
   <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de preocuparse con su aspecto en 2012 (Tasa respuesta: 43,64%)</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
   </si>
   <si>
     <t>11,95%</t>
   </si>
   <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de preocuparse con su aspecto en 2016 (Tasa respuesta: 45,67%)</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
   </si>
   <si>
     <t>23,82%</t>
   </si>
   <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
   </si>
   <si>
     <t>21,59%</t>
   </si>
   <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de preocuparse con su aspecto en 2012 (Tasa respuesta: 43,64%)</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
   </si>
   <si>
     <t>11,96%</t>
   </si>
   <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de preocuparse con su aspecto en 2016 (Tasa respuesta: 45,67%)</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
   </si>
   <si>
     <t>17,94%</t>
   </si>
   <si>
-    <t>15,35%</t>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
   </si>
   <si>
     <t>23,62%</t>
   </si>
   <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
     <t>21,61%</t>
   </si>
   <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
   </si>
 </sst>
 </file>
@@ -1640,7 +1652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0010C4E9-1F62-42BB-A5DB-97253D9BA6C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF177DFE-8B41-4694-9C38-937CB6591BDE}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2302,10 +2314,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D16" s="7">
-        <v>9505</v>
+        <v>16305</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2317,10 +2329,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I16" s="7">
-        <v>16305</v>
+        <v>9505</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2344,7 +2356,7 @@
         <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,34 +2365,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>29</v>
+      </c>
+      <c r="D17" s="7">
+        <v>19061</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="7">
         <v>23</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>15355</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="7">
-        <v>29</v>
-      </c>
-      <c r="I17" s="7">
-        <v>19061</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
         <v>52</v>
@@ -2389,13 +2401,13 @@
         <v>34417</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,34 +2416,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>59</v>
+      </c>
+      <c r="D18" s="7">
+        <v>38859</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="7">
         <v>57</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>39011</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="7">
-        <v>59</v>
-      </c>
-      <c r="I18" s="7">
-        <v>38859</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
         <v>116</v>
@@ -2440,13 +2452,13 @@
         <v>77870</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,34 +2467,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>20</v>
+      </c>
+      <c r="D19" s="7">
+        <v>13078</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="7">
         <v>36</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>23079</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="7">
-        <v>20</v>
-      </c>
-      <c r="I19" s="7">
-        <v>13078</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -2491,13 +2503,13 @@
         <v>36157</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,34 +2518,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>36</v>
+      </c>
+      <c r="D20" s="7">
+        <v>24408</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="7">
+      <c r="F20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="7">
+        <v>54</v>
+      </c>
+      <c r="I20" s="7">
         <v>35179</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="7">
-        <v>36</v>
-      </c>
-      <c r="I20" s="7">
-        <v>24408</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M20" s="7">
         <v>90</v>
@@ -2542,13 +2554,13 @@
         <v>59587</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,34 +2569,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>168</v>
+      </c>
+      <c r="D21" s="7">
+        <v>111711</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
         <v>184</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>122129</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="7">
-        <v>168</v>
-      </c>
-      <c r="I21" s="7">
-        <v>111711</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
         <v>352</v>
@@ -2593,51 +2605,51 @@
         <v>233840</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>66</v>
+      </c>
+      <c r="D22" s="7">
+        <v>44839</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="7">
         <v>48</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>32505</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="7">
-        <v>66</v>
-      </c>
-      <c r="I22" s="7">
-        <v>44839</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M22" s="7">
         <v>114</v>
@@ -2646,13 +2658,13 @@
         <v>77344</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,34 +2673,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>54</v>
+      </c>
+      <c r="D23" s="7">
+        <v>36312</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="7">
         <v>47</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>31705</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="7">
-        <v>54</v>
-      </c>
-      <c r="I23" s="7">
-        <v>36312</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="M23" s="7">
         <v>101</v>
@@ -2697,13 +2709,13 @@
         <v>68017</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,34 +2724,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>80</v>
+      </c>
+      <c r="D24" s="7">
+        <v>55054</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="7">
         <v>81</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>53373</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" s="7">
-        <v>80</v>
-      </c>
-      <c r="I24" s="7">
-        <v>55054</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M24" s="7">
         <v>161</v>
@@ -2748,13 +2760,13 @@
         <v>108427</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,34 +2775,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>25</v>
+      </c>
+      <c r="D25" s="7">
+        <v>16216</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="7">
         <v>39</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>25974</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="7">
-        <v>25</v>
-      </c>
-      <c r="I25" s="7">
-        <v>16216</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M25" s="7">
         <v>64</v>
@@ -2799,13 +2811,13 @@
         <v>42190</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,34 +2826,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>39</v>
+      </c>
+      <c r="D26" s="7">
+        <v>26514</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="7">
         <v>65</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>42540</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H26" s="7">
-        <v>39</v>
-      </c>
-      <c r="I26" s="7">
-        <v>26514</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M26" s="7">
         <v>104</v>
@@ -2850,13 +2862,13 @@
         <v>69054</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,34 +2877,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>264</v>
+      </c>
+      <c r="D27" s="7">
+        <v>178935</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>280</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>186097</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="7">
-        <v>264</v>
-      </c>
-      <c r="I27" s="7">
-        <v>178935</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M27" s="7">
         <v>544</v>
@@ -2901,13 +2913,13 @@
         <v>365032</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,34 +2930,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>90</v>
+      </c>
+      <c r="D28" s="7">
+        <v>61144</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="7">
         <v>62</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>42009</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H28" s="7">
-        <v>90</v>
-      </c>
-      <c r="I28" s="7">
-        <v>61144</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M28" s="7">
         <v>152</v>
@@ -2954,13 +2966,13 @@
         <v>103153</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,34 +2981,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>83</v>
+      </c>
+      <c r="D29" s="7">
+        <v>55373</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="7">
         <v>70</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>47060</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H29" s="7">
-        <v>83</v>
-      </c>
-      <c r="I29" s="7">
-        <v>55373</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M29" s="7">
         <v>153</v>
@@ -3005,13 +3017,13 @@
         <v>102434</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,34 +3032,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>139</v>
+      </c>
+      <c r="D30" s="7">
+        <v>93912</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="7">
         <v>138</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>92384</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H30" s="7">
-        <v>139</v>
-      </c>
-      <c r="I30" s="7">
-        <v>93912</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M30" s="7">
         <v>277</v>
@@ -3056,13 +3068,13 @@
         <v>186297</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,34 +3083,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>45</v>
+      </c>
+      <c r="D31" s="7">
+        <v>29294</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H31" s="7">
         <v>75</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>49053</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H31" s="7">
-        <v>45</v>
-      </c>
-      <c r="I31" s="7">
-        <v>29294</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M31" s="7">
         <v>120</v>
@@ -3107,13 +3119,13 @@
         <v>78347</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,34 +3134,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>75</v>
+      </c>
+      <c r="D32" s="7">
+        <v>50923</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" s="7">
         <v>119</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>77719</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H32" s="7">
-        <v>75</v>
-      </c>
-      <c r="I32" s="7">
-        <v>50923</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M32" s="7">
         <v>194</v>
@@ -3158,13 +3170,13 @@
         <v>128641</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,34 +3185,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>432</v>
+      </c>
+      <c r="D33" s="7">
+        <v>290646</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>464</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>308226</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H33" s="7">
-        <v>432</v>
-      </c>
-      <c r="I33" s="7">
-        <v>290646</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M33" s="7">
         <v>896</v>
@@ -3209,18 +3221,18 @@
         <v>598872</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3240,7 +3252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E9F5BE-9D98-4CB8-8FB7-94C536619058}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B454A68-829C-49CF-8296-DA4AC9F031DD}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3257,7 +3269,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3902,34 +3914,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>48</v>
+      </c>
+      <c r="D16" s="7">
+        <v>33776</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16" s="7">
         <v>25</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>16911</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H16" s="7">
-        <v>48</v>
-      </c>
-      <c r="I16" s="7">
-        <v>33776</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -3938,13 +3950,13 @@
         <v>50687</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3953,34 +3965,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>37</v>
+      </c>
+      <c r="D17" s="7">
+        <v>26427</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="7">
         <v>34</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>22666</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H17" s="7">
-        <v>37</v>
-      </c>
-      <c r="I17" s="7">
-        <v>26427</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M17" s="7">
         <v>71</v>
@@ -3989,13 +4001,13 @@
         <v>49093</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,34 +4016,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>51</v>
+      </c>
+      <c r="D18" s="7">
+        <v>36338</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18" s="7">
         <v>62</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>42337</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H18" s="7">
-        <v>51</v>
-      </c>
-      <c r="I18" s="7">
-        <v>36338</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M18" s="7">
         <v>113</v>
@@ -4040,13 +4052,13 @@
         <v>78675</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,34 +4067,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>31</v>
+      </c>
+      <c r="D19" s="7">
+        <v>21347</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H19" s="7">
         <v>39</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>28151</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H19" s="7">
-        <v>31</v>
-      </c>
-      <c r="I19" s="7">
-        <v>21347</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M19" s="7">
         <v>70</v>
@@ -4091,13 +4103,13 @@
         <v>49499</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,34 +4118,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D20" s="7">
+        <v>32077</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H20" s="7">
+        <v>63</v>
+      </c>
+      <c r="I20" s="7">
         <v>45361</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H20" s="7">
-        <v>47</v>
-      </c>
-      <c r="I20" s="7">
-        <v>32077</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M20" s="7">
         <v>110</v>
@@ -4142,13 +4154,13 @@
         <v>77439</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>194</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,34 +4169,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>214</v>
+      </c>
+      <c r="D21" s="7">
+        <v>149965</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
         <v>223</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>155427</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="7">
-        <v>214</v>
-      </c>
-      <c r="I21" s="7">
-        <v>149965</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
         <v>437</v>
@@ -4193,51 +4205,51 @@
         <v>305392</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>61</v>
+      </c>
+      <c r="D22" s="7">
+        <v>44786</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H22" s="7">
         <v>62</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>40766</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H22" s="7">
-        <v>61</v>
-      </c>
-      <c r="I22" s="7">
-        <v>44786</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M22" s="7">
         <v>123</v>
@@ -4246,13 +4258,13 @@
         <v>85552</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,34 +4273,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>49</v>
+      </c>
+      <c r="D23" s="7">
+        <v>34316</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H23" s="7">
         <v>31</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>20307</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H23" s="7">
-        <v>49</v>
-      </c>
-      <c r="I23" s="7">
-        <v>34316</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M23" s="7">
         <v>80</v>
@@ -4297,13 +4309,13 @@
         <v>54623</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,34 +4324,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>65</v>
+      </c>
+      <c r="D24" s="7">
+        <v>46075</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H24" s="7">
         <v>76</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>52565</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H24" s="7">
-        <v>65</v>
-      </c>
-      <c r="I24" s="7">
-        <v>46075</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M24" s="7">
         <v>141</v>
@@ -4348,13 +4360,13 @@
         <v>98641</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,34 +4375,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>28</v>
+      </c>
+      <c r="D25" s="7">
+        <v>19605</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H25" s="7">
         <v>41</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>29084</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H25" s="7">
-        <v>28</v>
-      </c>
-      <c r="I25" s="7">
-        <v>19605</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -4399,13 +4411,13 @@
         <v>48689</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,34 +4426,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>26</v>
+      </c>
+      <c r="D26" s="7">
+        <v>16906</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H26" s="7">
         <v>40</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>27238</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H26" s="7">
-        <v>26</v>
-      </c>
-      <c r="I26" s="7">
-        <v>16906</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M26" s="7">
         <v>66</v>
@@ -4450,13 +4462,13 @@
         <v>44144</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,34 +4477,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>229</v>
+      </c>
+      <c r="D27" s="7">
+        <v>161688</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>250</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>169960</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="7">
-        <v>229</v>
-      </c>
-      <c r="I27" s="7">
-        <v>161688</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M27" s="7">
         <v>479</v>
@@ -4501,13 +4513,13 @@
         <v>331648</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,34 +4530,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>109</v>
+      </c>
+      <c r="D28" s="7">
+        <v>78562</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H28" s="7">
         <v>87</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>57677</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H28" s="7">
-        <v>109</v>
-      </c>
-      <c r="I28" s="7">
-        <v>78562</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>231</v>
+        <v>126</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="M28" s="7">
         <v>196</v>
@@ -4557,10 +4569,10 @@
         <v>190</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,34 +4581,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>86</v>
+      </c>
+      <c r="D29" s="7">
+        <v>60743</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H29" s="7">
         <v>65</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>42973</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H29" s="7">
-        <v>86</v>
-      </c>
-      <c r="I29" s="7">
-        <v>60742</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M29" s="7">
         <v>151</v>
@@ -4605,13 +4617,13 @@
         <v>103716</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,34 +4632,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>116</v>
+      </c>
+      <c r="D30" s="7">
+        <v>82413</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H30" s="7">
         <v>138</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>94903</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H30" s="7">
-        <v>116</v>
-      </c>
-      <c r="I30" s="7">
-        <v>82413</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="M30" s="7">
         <v>254</v>
@@ -4656,13 +4668,13 @@
         <v>177316</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,34 +4683,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>59</v>
+      </c>
+      <c r="D31" s="7">
+        <v>40952</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H31" s="7">
         <v>80</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>57235</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H31" s="7">
-        <v>59</v>
-      </c>
-      <c r="I31" s="7">
-        <v>40952</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="M31" s="7">
         <v>139</v>
@@ -4707,13 +4719,13 @@
         <v>98187</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>266</v>
+        <v>159</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,34 +4734,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>73</v>
+      </c>
+      <c r="D32" s="7">
+        <v>48983</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="7">
         <v>103</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>72599</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H32" s="7">
-        <v>73</v>
-      </c>
-      <c r="I32" s="7">
-        <v>48983</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M32" s="7">
         <v>176</v>
@@ -4758,13 +4770,13 @@
         <v>121582</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>277</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,34 +4785,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>443</v>
+      </c>
+      <c r="D33" s="7">
+        <v>311653</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>473</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>325387</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H33" s="7">
-        <v>443</v>
-      </c>
-      <c r="I33" s="7">
-        <v>311652</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M33" s="7">
         <v>916</v>
@@ -4809,18 +4821,18 @@
         <v>637040</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4840,7 +4852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE69E19-56CA-494E-9F0B-B6479BD91863}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0455455E-1C87-4CF3-B411-E58B7461F082}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4857,7 +4869,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5502,25 +5514,25 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D16" s="7">
-        <v>25060</v>
+        <v>31334</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>281</v>
       </c>
       <c r="H16" s="7">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I16" s="7">
-        <v>31334</v>
+        <v>25060</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>282</v>
@@ -5529,7 +5541,7 @@
         <v>283</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -5553,10 +5565,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D17" s="7">
-        <v>31579</v>
+        <v>29075</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>287</v>
@@ -5565,22 +5577,22 @@
         <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H17" s="7">
+        <v>43</v>
+      </c>
+      <c r="I17" s="7">
+        <v>31579</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="H17" s="7">
-        <v>40</v>
-      </c>
-      <c r="I17" s="7">
-        <v>29075</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M17" s="7">
         <v>83</v>
@@ -5589,13 +5601,13 @@
         <v>60654</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,34 +5616,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>65</v>
+      </c>
+      <c r="D18" s="7">
+        <v>45113</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H18" s="7">
         <v>49</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>34626</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="H18" s="7">
-        <v>65</v>
-      </c>
-      <c r="I18" s="7">
-        <v>45113</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M18" s="7">
         <v>114</v>
@@ -5640,13 +5652,13 @@
         <v>79739</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,34 +5667,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>43</v>
+      </c>
+      <c r="D19" s="7">
+        <v>29468</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H19" s="7">
         <v>53</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>38030</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="H19" s="7">
-        <v>43</v>
-      </c>
-      <c r="I19" s="7">
-        <v>29468</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M19" s="7">
         <v>96</v>
@@ -5691,13 +5703,13 @@
         <v>67498</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,13 +5718,13 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D20" s="7">
-        <v>49316</v>
+        <v>44480</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>192</v>
+        <v>313</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>314</v>
@@ -5721,10 +5733,10 @@
         <v>315</v>
       </c>
       <c r="H20" s="7">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I20" s="7">
-        <v>44480</v>
+        <v>49316</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>316</v>
@@ -5733,7 +5745,7 @@
         <v>317</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>256</v>
+        <v>318</v>
       </c>
       <c r="M20" s="7">
         <v>135</v>
@@ -5742,13 +5754,13 @@
         <v>93796</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,34 +5769,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>257</v>
+      </c>
+      <c r="D21" s="7">
+        <v>179470</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
         <v>250</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>178611</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="7">
-        <v>257</v>
-      </c>
-      <c r="I21" s="7">
-        <v>179470</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
         <v>507</v>
@@ -5793,51 +5805,51 @@
         <v>358082</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>59</v>
+      </c>
+      <c r="D22" s="7">
+        <v>43113</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H22" s="7">
         <v>35</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>25998</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H22" s="7">
-        <v>59</v>
-      </c>
-      <c r="I22" s="7">
-        <v>43113</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>87</v>
+        <v>325</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M22" s="7">
         <v>94</v>
@@ -5846,13 +5858,13 @@
         <v>69110</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>300</v>
+        <v>162</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>29</v>
+        <v>328</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,34 +5873,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>46</v>
+      </c>
+      <c r="D23" s="7">
+        <v>30662</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H23" s="7">
         <v>48</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>35643</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H23" s="7">
-        <v>46</v>
-      </c>
-      <c r="I23" s="7">
-        <v>30662</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M23" s="7">
         <v>94</v>
@@ -5897,13 +5909,13 @@
         <v>66305</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>206</v>
+        <v>337</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,34 +5924,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>66</v>
+      </c>
+      <c r="D24" s="7">
+        <v>46261</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H24" s="7">
         <v>55</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>40768</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="H24" s="7">
-        <v>66</v>
-      </c>
-      <c r="I24" s="7">
-        <v>46261</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="M24" s="7">
         <v>121</v>
@@ -5948,13 +5960,13 @@
         <v>87029</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,34 +5975,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>30</v>
+      </c>
+      <c r="D25" s="7">
+        <v>21884</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H25" s="7">
         <v>47</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>35034</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="H25" s="7">
-        <v>30</v>
-      </c>
-      <c r="I25" s="7">
-        <v>21884</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -5999,13 +6011,13 @@
         <v>56917</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>160</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,34 +6026,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>33</v>
+      </c>
+      <c r="D26" s="7">
+        <v>22887</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H26" s="7">
         <v>45</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>33150</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H26" s="7">
-        <v>33</v>
-      </c>
-      <c r="I26" s="7">
-        <v>22887</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>294</v>
+        <v>358</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="M26" s="7">
         <v>78</v>
@@ -6050,13 +6062,13 @@
         <v>56037</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,34 +6077,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>234</v>
+      </c>
+      <c r="D27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>230</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>170592</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="7">
-        <v>234</v>
-      </c>
-      <c r="I27" s="7">
-        <v>164807</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M27" s="7">
         <v>464</v>
@@ -6101,13 +6113,13 @@
         <v>335399</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,34 +6130,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>103</v>
+      </c>
+      <c r="D28" s="7">
+        <v>74447</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H28" s="7">
         <v>70</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>51057</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="H28" s="7">
-        <v>103</v>
-      </c>
-      <c r="I28" s="7">
-        <v>74447</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>28</v>
+        <v>367</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="M28" s="7">
         <v>173</v>
@@ -6154,13 +6166,13 @@
         <v>125504</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,34 +6181,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>86</v>
+      </c>
+      <c r="D29" s="7">
+        <v>59737</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H29" s="7">
         <v>91</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>67222</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="H29" s="7">
-        <v>86</v>
-      </c>
-      <c r="I29" s="7">
-        <v>59737</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="M29" s="7">
         <v>177</v>
@@ -6205,13 +6217,13 @@
         <v>126959</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,34 +6232,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>131</v>
+      </c>
+      <c r="D30" s="7">
+        <v>91375</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H30" s="7">
         <v>104</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>75394</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="H30" s="7">
-        <v>131</v>
-      </c>
-      <c r="I30" s="7">
-        <v>91375</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>377</v>
+        <v>222</v>
       </c>
       <c r="M30" s="7">
         <v>235</v>
@@ -6256,13 +6268,13 @@
         <v>166768</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>305</v>
+        <v>386</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,34 +6283,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>73</v>
+      </c>
+      <c r="D31" s="7">
+        <v>51352</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H31" s="7">
         <v>100</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>73064</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="H31" s="7">
-        <v>73</v>
-      </c>
-      <c r="I31" s="7">
-        <v>51352</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="M31" s="7">
         <v>173</v>
@@ -6307,13 +6319,13 @@
         <v>124416</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>324</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6322,34 +6334,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>98</v>
+      </c>
+      <c r="D32" s="7">
+        <v>67367</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H32" s="7">
         <v>115</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>82467</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="H32" s="7">
-        <v>98</v>
-      </c>
-      <c r="I32" s="7">
-        <v>67367</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>392</v>
+        <v>118</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>393</v>
+        <v>135</v>
       </c>
       <c r="M32" s="7">
         <v>213</v>
@@ -6358,13 +6370,13 @@
         <v>149834</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6373,34 +6385,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>491</v>
+      </c>
+      <c r="D33" s="7">
+        <v>344278</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>480</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>349203</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H33" s="7">
-        <v>491</v>
-      </c>
-      <c r="I33" s="7">
-        <v>344278</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M33" s="7">
         <v>971</v>
@@ -6409,18 +6421,18 @@
         <v>693480</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
